--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Disstrg\個人\戦略本部\tk.okamoto\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC3E856-E518-4F14-927E-0D4B678B46C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32782D1-2643-4BA3-BB0E-10D63FBAB12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10404" yWindow="12" windowWidth="12768" windowHeight="12108" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="84" yWindow="12" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -1070,6 +1070,45 @@
     </rPh>
     <rPh sb="41" eb="42">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書には、会員ログインの機能についての記述があるが
+会員ログアウトについての記述が無い
+会員ログアウトの機能は無くても良いのか</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1622,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2056,9 +2095,13 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="16"/>
+    <row r="30" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A30" s="18">
+        <v>28</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0D9CE-C287-420D-B980-40A80DE47A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4AFCF-5DE5-49B0-B3E2-2340B16A3723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-144" yWindow="36" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="10440" yWindow="72" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -740,6 +740,27 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">要件定義書の会員登録情報入力画面について
+項番77,78：「会員情報を入力して登録すると
+会員登録情報確認ができること」,
+「入力する情報は以下の通り」とありその中に、
+項番80：「パスワード」とあるが、パスワードはハッシュ化をする認識です。認識相違ないですか？
+</t>
+    <rPh sb="6" eb="16">
+      <t>カイイントウロクジョウホウニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="121" eb="125">
+      <t>ニンシキソウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1505,8 +1526,8 @@
       <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>15</v>
+      <c r="B15" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="8"/>
@@ -1516,12 +1537,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" ht="126" x14ac:dyDescent="0.45">
       <c r="A16" s="18">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="8"/>
@@ -1531,12 +1552,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.45">
       <c r="A17" s="18">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="8"/>
@@ -1551,7 +1572,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="8"/>
@@ -1561,12 +1582,12 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="72" x14ac:dyDescent="0.45">
       <c r="A19" s="18">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="8"/>
@@ -1576,12 +1597,12 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A20" s="18">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="8"/>
@@ -1591,12 +1612,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>21</v>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="8"/>
@@ -1606,11 +1627,13 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>21</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF4AFCF-5DE5-49B0-B3E2-2340B16A3723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD0E7E-118C-4D4D-A999-5ED9AAE0D9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="72" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="1920" yWindow="864" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AD0E7E-118C-4D4D-A999-5ED9AAE0D9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C997FF8-2655-44F4-850F-B910BCFAE5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="864" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -703,42 +703,6 @@
       <t>シヨウ</t>
     </rPh>
     <rPh sb="39" eb="41">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部設計の成果物について
-既に罫線が引かれているが、記述する行数などは
-増やしても問題ないですか？</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>セイカブツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイセン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ギョウスウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
       <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1527,7 +1491,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="8"/>
@@ -1627,13 +1591,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C997FF8-2655-44F4-850F-B910BCFAE5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E9C33-F6C6-4615-A16F-AB27BD0B85A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -725,6 +725,45 @@
     </rPh>
     <rPh sb="121" eb="125">
       <t>ニンシキソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義について
+会員テーブル：users に退会判定用のカラムが無いのですが
+退会処理をする際は、物理削除という認識で相違ないですか？</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>タイカイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ハンテイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>タイカイショリ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ソウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1591,11 +1630,13 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E9C33-F6C6-4615-A16F-AB27BD0B85A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E669DF2F-A96B-41C5-A004-753AA01A9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="12732" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
+    <sheet name="補足資料" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -107,255 +109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要件定義書の商品検索画面について
-項番4,5：「キーワード検索ができること」,
-「商品カテゴリを指定して検索ができること」とあるが
-指定は必須ではないという認識です。
-認識相違ないですか？</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="6" eb="12">
-      <t>ショウヒンケンサクガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>ニンシキソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の商品検索画面について
-項番4：「キーワード検索ができること」とあるが、
-"キーワード"というのは商品名のキーワードという認識です。
-認識相違ないですか？</t>
-    <rPh sb="6" eb="8">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の商品検索結果画面について
-項番13：「検索したキーワードを表示すること」とあるが、
-キーワードを入力せずに検索した場合は、何も表示しない
-という認識です。
-認識相違ないですか？</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="84" eb="88">
-      <t>ニンシキソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の商品検索結果画面について
-在庫が無い商品は結果に表示させないという認識です。
-認識相違ないですか？</t>
-    <rPh sb="6" eb="8">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>ニンシキソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の商品詳細表示画面について
-項番21：「数量を指定してショッピングカートに商品を入れることが出来ること」とあるが、数量の指定には
-プルダウンメニューを使用する認識です。
-認識相違ないですか？
-また、数量指定は５個までにしますが、問題ないですか？</t>
-    <rPh sb="6" eb="8">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>スウリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>スウリョウ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="90" eb="94">
-      <t>ニンシキソウイ</t>
-    </rPh>
-    <rPh sb="104" eb="108">
-      <t>スウリョウシテイ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書のショッピングカート一覧画面について
-項番30：「カートからの削除ができること」とあるが、
-カートからの削除のアクションは、商品の右側にある
-キャンセルのボタン、またはハイパーリンクを押下し
-実行させるという認識です。
-認識相違ないですか？</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ミギガワ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="115" eb="119">
-      <t>ニンシキソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書のカートからの削除確認画面について
-項番35：「会員ログインしていない場合、不正アクセスエラーとすること」とあるが、
-不正アクセスエラーは会員ログイン画面に遷移し、
-エラーメッセージを表示する認識です。
-認識相違無いですか？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要件定義書の購入確認画面について
 カート一覧画面からの遷移で表示する認識です。
 認識相違ないですか？</t>
@@ -380,62 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要件定義書の購入確認画面について
-項番61：「商品の在庫を減らし、注文を確定させる処理を
-同時に行う」とあるが、在庫数が足りないときは
-購入確認画面にエラーメッセージを表示する認識です。
-認識相違ないですか？</t>
-    <rPh sb="6" eb="12">
-      <t>コウニュウカクニンガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ドウジ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="68" eb="74">
-      <t>コウニュウカクニンガメン</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="94" eb="98">
-      <t>ニンシキソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>要件定義書の購入完了画面について
 購入完了後は商品検索画面へ遷移する認識です。
 認識相違ないですか？</t>
@@ -455,50 +152,6 @@
       <t>ニンシキ</t>
     </rPh>
     <rPh sb="40" eb="44">
-      <t>ニンシキソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の会員ログイン画面について
-項番72：「ログイン成功時はメイン画面へ遷移すること」と
-あるが、ログイン失敗時は会員ログイン画面にメッセージを
-表示する認識です。
-認識相違ないですか？</t>
-    <rPh sb="6" eb="8">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>セイコウジ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>シッパイジ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="86" eb="90">
       <t>ニンシキソウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -729,41 +382,603 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル定義について
-会員テーブル：users に退会判定用のカラムが無いのですが
-退会処理をする際は、物理削除という認識で相違ないですか？</t>
+    <t>要件定義書の商品検索画面について
+項番4：「キーワード検索ができること」とあるが、
+"キーワード"というのは商品名のキーワードという認識で相違ないですか？</t>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の商品検索画面について
+項番4,5：「キーワード検索ができること」,
+「商品カテゴリを指定して検索ができること」とあるが
+指定は必須ではないという認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の商品検索結果画面について
+項番13：「検索したキーワードを表示すること」とあるが、
+キーワードを入力せずに検索した場合は、何も表示しない
+という認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の商品検索結果画面について
+在庫が無い商品は結果に表示させないという認識で
+相違ないですか？</t>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の商品詳細表示画面について
+項番21：「数量を指定してショッピングカートに商品を入れることが出来ること」とあるが、数量の指定には
+プルダウンメニューを使用する認識で相違ないですか？
+また、数量指定は５個までにしますが、問題ないですか？</t>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="99" eb="103">
+      <t>スウリョウシテイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足資料</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書のショッピングカート一覧画面について
+項番30：「カートからの削除ができること」とあるが、
+カートからの削除のアクションは、商品の右側にある
+キャンセルのボタン、またはハイパーリンクを押下し
+実行させるという認識です。
+認識相違ないですか？※補足資料:No１参照</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="115" eb="119">
+      <t>ニンシキソウイ</t>
+    </rPh>
+    <rPh sb="126" eb="130">
+      <t>ホソクシリョウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>サンショウホソクシリョウサンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書のカートからの削除確認画面について
+項番35：「会員ログインしていない場合、不正アクセスエラーとすること」とあるが、
+不正アクセスエラーは会員ログイン画面に遷移し、
+エラーメッセージを表示する認識です。
+認識相違無いですか？※補足資料:No２参照</t>
+    <rPh sb="118" eb="122">
+      <t>ホソクシリョウ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の購入確認画面について
+項番61：「商品の在庫を減らし、注文を確定させる処理を
+同時に行う」とあるが、在庫数が足りないときは
+購入確認画面にエラーメッセージを表示する認識です。
+認識相違ないですか？※補足資料:No２参照</t>
+    <rPh sb="6" eb="12">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="68" eb="74">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="94" eb="98">
+      <t>ニンシキソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の会員ログイン画面について
+項番72：「ログイン成功時はメイン画面へ遷移すること」と
+あるが、ログイン失敗時は会員ログイン画面にメッセージを
+表示する認識です。
+認識相違ないですか？※補足資料:No２参照</t>
+    <rPh sb="6" eb="8">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>シッパイジ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="86" eb="90">
+      <t>ニンシキソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在庫が無い商品は結果に表示させない</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージの表示でよい</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート一覧画面からで問題なし</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入確認画面にエラーメッセージを表示</t>
+    <rPh sb="0" eb="6">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージを表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伏字、アスタリスク
+入力したパスワードの文字数分</t>
+    <rPh sb="0" eb="2">
+      <t>フセジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>モジスウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン状態に、可能であれば
+再度レビューの際に確認</t>
     <rPh sb="4" eb="6">
-      <t>テイギ</t>
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名の一部で検索すればよい</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須にする必要はない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード等が無ければ表示しなくて良い</t>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ハンテイヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="42" eb="46">
-      <t>タイカイショリ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ブツリ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ソウイ</t>
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンメニューを使用
+数量指定は在庫数まで指定可能</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>スウリョウシテイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>シテイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート一覧画面へ遷移させる</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モックアップ基準に作成すること</t>
+    <rPh sb="6" eb="8">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移させる</t>
+    <rPh sb="0" eb="6">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化させる</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現を用いて良し</t>
+    <rPh sb="0" eb="4">
+      <t>セイキヒョウゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート内の商品は「修正」も出来るようにする</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コーディング規約に準じていれば、基本なんでもよい
+</t>
+    <rPh sb="6" eb="8">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度持ち帰り</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -797,7 +1012,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -924,13 +1139,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1329,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1015,6 +1370,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3202726</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1798565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715FC061-F4F4-4448-ADF5-60CD33381016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="510540"/>
+          <a:ext cx="3019846" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>624841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3307080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1237965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF48220-31D4-4F14-A30C-A664AA126540}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="297180" y="2941321"/>
+          <a:ext cx="3253740" cy="613124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1316,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1350,9 +1798,11 @@
         <v>1</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="5"/>
@@ -1360,14 +1810,16 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="94.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="5"/>
@@ -1375,14 +1827,16 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="94.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="4"/>
@@ -1395,9 +1849,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="4"/>
@@ -1405,14 +1861,16 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="111.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="4"/>
@@ -1427,7 +1885,9 @@
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="3"/>
@@ -1440,9 +1900,11 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="4"/>
@@ -1455,9 +1917,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="4"/>
@@ -1470,9 +1934,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="4"/>
@@ -1485,9 +1951,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
@@ -1500,9 +1968,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="4"/>
@@ -1515,9 +1985,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="4"/>
@@ -1525,14 +1997,16 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="126" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" ht="111.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18">
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="4"/>
@@ -1545,9 +2019,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="4"/>
@@ -1560,9 +2036,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="4"/>
@@ -1575,9 +2053,11 @@
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="4"/>
@@ -1590,9 +2070,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="4"/>
@@ -1605,9 +2087,11 @@
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="4"/>
@@ -1620,9 +2104,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="4"/>
@@ -1630,13 +2116,11 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="B22" s="16"/>
       <c r="C22" s="11"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1791,4 +2275,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEB825E-949D-4120-9965-953421810D5C}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="1:2" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="29">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30"/>
+    </row>
+    <row r="5" spans="1:2" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:2" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E669DF2F-A96B-41C5-A004-753AA01A9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA9674-B2FF-4306-A089-19C07E533FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="補足資料" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -766,13 +765,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーメッセージの表示でよい</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カート一覧画面からで問題なし</t>
     <rPh sb="3" eb="7">
       <t>イチランガメン</t>
@@ -979,6 +971,22 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員ログイン画面に遷移させエラーメッセージの表示をする</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1764,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1801,7 +1809,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -1818,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1835,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -1869,7 +1877,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -1886,7 +1894,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1903,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1920,7 +1928,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1937,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1954,7 +1962,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1971,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1988,7 +1996,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2005,7 +2013,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2022,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2039,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2056,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2073,7 +2081,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2090,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2107,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA9674-B2FF-4306-A089-19C07E533FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707E12D-D470-471B-B43F-5AE7BBCAD1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
@@ -1772,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E707E12D-D470-471B-B43F-5AE7BBCAD1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D9F5F-F36C-4F95-9D4E-45755F1DD8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -987,6 +987,266 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡方法について
+レビューの時以外で連絡を取る方法はありますか？</t>
+    <rPh sb="0" eb="4">
+      <t>レンラクホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トキイガイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度持ち帰り</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールについて
+レビュー後、修正をした点は再レビューを行いますか？</t>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原則再レビューを行う
+時間の都合などで進まなそうであれば要相談</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ヨウソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールについて
+結合試験や総合試験は一度レビューを通しますか？</t>
+    <rPh sb="11" eb="15">
+      <t>ケツゴウシケン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ソウゴウシケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テストにすぐに入って問題ない</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューについて
+コーディングのレビューは無いものとして単体テストに
+すぐに入っても問題ないですか？</t>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計の成果物について
+既に罫線が書かれているもの、既にある枠に沿って
+穴埋めをしていく方が良いですか？</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧やイベント定義書は個人の制作に合わせて書き換えて良い
+画面遷移図は既にある枠を埋めるだけでよい
+画面の枠は増えない想定</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="36">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義について
+会員テーブルには退会判定用のカラムが無いのですが、
+退会処理をする際は物理削除という認識で相違ないですか？</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>タイカイハンテイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>タイカイショリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ブツリサクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理削除でよい</t>
+    <rPh sb="0" eb="4">
+      <t>ブツリサクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1772,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2124,12 +2384,16 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="4"/>
@@ -2137,12 +2401,16 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="4"/>
@@ -2150,12 +2418,16 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.45">
       <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="4"/>
@@ -2163,12 +2435,16 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="4"/>
@@ -2176,12 +2452,16 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="72" x14ac:dyDescent="0.45">
       <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="4"/>
@@ -2189,12 +2469,16 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="4"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D9F5F-F36C-4F95-9D4E-45755F1DD8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CEE768-8094-46AB-A052-DFD03153A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="-24" yWindow="36" windowWidth="14196" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -1247,6 +1247,72 @@
     <t>物理削除でよい</t>
     <rPh sb="0" eb="4">
       <t>ブツリサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の購入確認画面について
+項番59：「清算方法が選択できること」とあるが、選択方法は
+プルダウンメニューを使用する認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>セイサンホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>センタクホウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の購入確認画面について
+項番61：「配送先が指定できること」とあるが、指定方法は
+プルダウンメニューを使用する認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ハイソウサキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>シテイホウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ソウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2032,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2486,11 +2552,13 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2499,11 +2567,13 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CEE768-8094-46AB-A052-DFD03153A38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDD3298-B7FC-4CA3-B137-176BDEDCEEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="36" windowWidth="14196" windowHeight="12096" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -584,12 +584,780 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>在庫が無い商品は結果に表示させない</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート一覧画面からで問題なし</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入確認画面にエラーメッセージを表示</t>
+    <rPh sb="0" eb="6">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージを表示</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伏字、アスタリスク
+入力したパスワードの文字数分</t>
+    <rPh sb="0" eb="2">
+      <t>フセジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>モジスウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン状態に、可能であれば
+再度レビューの際に確認</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名の一部で検索すればよい</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須にする必要はない</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーワード等が無ければ表示しなくて良い</t>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンメニューを使用
+数量指定は在庫数まで指定可能</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>スウリョウシテイ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>シテイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート一覧画面へ遷移させる</t>
+    <rPh sb="3" eb="7">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モックアップ基準に作成すること</t>
+    <rPh sb="6" eb="8">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品検索画面へ遷移させる</t>
+    <rPh sb="0" eb="6">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ化させる</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現を用いて良し</t>
+    <rPh sb="0" eb="4">
+      <t>セイキヒョウゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート内の商品は「修正」も出来るようにする</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">コーディング規約に準じていれば、基本なんでもよい
+</t>
+    <rPh sb="6" eb="8">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度持ち帰り</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員ログイン画面に遷移させエラーメッセージの表示をする</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡方法について
+レビューの時以外で連絡を取る方法はありますか？</t>
+    <rPh sb="0" eb="4">
+      <t>レンラクホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トキイガイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度持ち帰り</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールについて
+レビュー後、修正をした点は再レビューを行いますか？</t>
+    <rPh sb="15" eb="16">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原則再レビューを行う
+時間の都合などで進まなそうであれば要相談</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ヨウソウダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケジュールについて
+結合試験や総合試験は一度レビューを通しますか？</t>
+    <rPh sb="11" eb="15">
+      <t>ケツゴウシケン</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ソウゴウシケン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テストにすぐに入って問題ない</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューについて
+コーディングのレビューは無いものとして単体テストに
+すぐに入っても問題ないですか？</t>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部設計の成果物について
+既に罫線が書かれているもの、既にある枠に沿って
+穴埋めをしていく方が良いですか？</t>
+    <rPh sb="0" eb="4">
+      <t>ガイブセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイセン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能一覧やイベント定義書は個人の制作に合わせて書き換えて良い
+画面遷移図は既にある枠を埋めるだけでよい
+画面の枠は増えない想定</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>テイギショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="36">
+      <t>ガメンセンイズ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル定義について
+会員テーブルには退会判定用のカラムが無いのですが、
+退会処理をする際は物理削除という認識で相違ないですか？</t>
+    <rPh sb="4" eb="6">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="19" eb="24">
+      <t>タイカイハンテイヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>タイカイショリ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ブツリサクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理削除でよい</t>
+    <rPh sb="0" eb="4">
+      <t>ブツリサクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の購入確認画面について
+項番59：「清算方法が選択できること」とあるが、選択方法は
+プルダウンメニューを使用する認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>セイサンホウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>センタクホウホウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の購入確認画面について
+項番61：「配送先が指定できること」とあるが、指定方法は
+プルダウンメニューを使用する認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ハイソウサキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>シテイホウホウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計の成果物について
+クラス仕様書で明示的にコンストラクタを使用しない場合は
+コンストラクタの記入はしなくても問題ないですか？</t>
+    <rPh sb="0" eb="4">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>メイジテキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の商品検索画面について
+項番4,5：「キーワード検索ができること」,
+「商品カテゴリを指定して検索ができること」とあるが
+両方の指定をした場合、片方でも一致したら商品の表示を
+行うという認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カタホウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの修正について
+カートの修正はカート一覧表示画面から別画面に遷移
+遷移先で商品の購入個数を修正、購入個数の確認、
+購入個数の修正完了という流れで３画面新しく遷移する
+認識なのですが、問題ないでしょうか？</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>イチランヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ベツガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>コウニュウコスウ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="60" eb="64">
+      <t>コウニュウコスウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースについて
+コネクションプールの使用は必要ですか？
+必要なら、最小接続数や最大接続数、接続の最長時間などは
+どのようにしますか？</t>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>サイショウセツゾク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>セツゾクスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>サイチョウジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>要件定義書のショッピングカート一覧画面について
 項番30：「カートからの削除ができること」とあるが、
 カートからの削除のアクションは、商品の右側にある
 キャンセルのボタン、またはハイパーリンクを押下し
 実行させるという認識です。
-認識相違ないですか？※補足資料:No１参照</t>
+認識相違ないですか？</t>
     <rPh sb="0" eb="5">
       <t>ヨウケンテイギショ</t>
     </rPh>
@@ -622,12 +1390,6 @@
     </rPh>
     <rPh sb="115" eb="119">
       <t>ニンシキソウイ</t>
-    </rPh>
-    <rPh sb="126" eb="130">
-      <t>ホソクシリョウ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>サンショウホソクシリョウサンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,13 +1398,7 @@
 項番35：「会員ログインしていない場合、不正アクセスエラーとすること」とあるが、
 不正アクセスエラーは会員ログイン画面に遷移し、
 エラーメッセージを表示する認識です。
-認識相違無いですか？※補足資料:No２参照</t>
-    <rPh sb="118" eb="122">
-      <t>ホソクシリョウ</t>
-    </rPh>
-    <rPh sb="126" eb="128">
-      <t>サンショウ</t>
-    </rPh>
+認識相違無いですか？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -650,7 +1406,7 @@
 項番61：「商品の在庫を減らし、注文を確定させる処理を
 同時に行う」とあるが、在庫数が足りないときは
 購入確認画面にエラーメッセージを表示する認識です。
-認識相違ないですか？※補足資料:No２参照</t>
+認識相違ないですか?</t>
     <rPh sb="6" eb="12">
       <t>コウニュウカクニンガメン</t>
     </rPh>
@@ -706,7 +1462,7 @@
 項番72：「ログイン成功時はメイン画面へ遷移すること」と
 あるが、ログイン失敗時は会員ログイン画面にメッセージを
 表示する認識です。
-認識相違ないですか？※補足資料:No２参照</t>
+認識相違ないですか？</t>
     <rPh sb="6" eb="8">
       <t>カイイン</t>
     </rPh>
@@ -746,573 +1502,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>在庫が無い商品は結果に表示させない</t>
-    <rPh sb="0" eb="2">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カート一覧画面からで問題なし</t>
-    <rPh sb="3" eb="7">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>購入確認画面にエラーメッセージを表示</t>
-    <rPh sb="0" eb="6">
-      <t>コウニュウカクニンガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージを表示</t>
+    <t>会員機能について
+現在、ログアウトについての記載がありませんが、
+ログアウトの機能は必要でしょうか？
+必要な場合は、どのような画面を使用しますか？</t>
+    <rPh sb="0" eb="4">
+      <t>カイインキノウ</t>
+    </rPh>
     <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伏字、アスタリスク
-入力したパスワードの文字数分</t>
-    <rPh sb="0" eb="2">
-      <t>フセジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>モジスウブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン状態に、可能であれば
-再度レビューの際に確認</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品名の一部で検索すればよい</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒンメイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>必須にする必要はない</t>
-    <rPh sb="0" eb="2">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーワード等が無ければ表示しなくて良い</t>
-    <rPh sb="5" eb="6">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プルダウンメニューを使用
-数量指定は在庫数まで指定可能</t>
-    <rPh sb="10" eb="12">
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
       <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>スウリョウシテイ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ザイコスウ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>シテイカノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カート一覧画面へ遷移させる</t>
-    <rPh sb="3" eb="7">
-      <t>イチランガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モックアップ基準に作成すること</t>
-    <rPh sb="6" eb="8">
-      <t>キジュン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品検索画面へ遷移させる</t>
-    <rPh sb="0" eb="6">
-      <t>ショウヒンケンサクガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハッシュ化させる</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正規表現を用いて良し</t>
-    <rPh sb="0" eb="4">
-      <t>セイキヒョウゲン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カート内の商品は「修正」も出来るようにする</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">コーディング規約に準じていれば、基本なんでもよい
-</t>
-    <rPh sb="6" eb="8">
-      <t>キヤク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一度持ち帰り</t>
-    <rPh sb="0" eb="2">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会員ログイン画面に遷移させエラーメッセージの表示をする</t>
-    <rPh sb="0" eb="2">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連絡方法について
-レビューの時以外で連絡を取る方法はありますか？</t>
-    <rPh sb="0" eb="4">
-      <t>レンラクホウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>トキイガイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一度持ち帰り</t>
-    <rPh sb="0" eb="2">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュールについて
-レビュー後、修正をした点は再レビューを行いますか？</t>
-    <rPh sb="15" eb="16">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原則再レビューを行う
-時間の都合などで進まなそうであれば要相談</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンソク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>スス</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ヨウソウダン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スケジュールについて
-結合試験や総合試験は一度レビューを通しますか？</t>
-    <rPh sb="11" eb="15">
-      <t>ケツゴウシケン</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ソウゴウシケン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチド</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単体テストにすぐに入って問題ない</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>レビューについて
-コーディングのレビューは無いものとして単体テストに
-すぐに入っても問題ないですか？</t>
-    <rPh sb="21" eb="22">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>外部設計の成果物について
-既に罫線が書かれているもの、既にある枠に沿って
-穴埋めをしていく方が良いですか？</t>
-    <rPh sb="0" eb="4">
-      <t>ガイブセッケイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>セイカブツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケイセン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ソ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能一覧やイベント定義書は個人の制作に合わせて書き換えて良い
-画面遷移図は既にある枠を埋めるだけでよい
-画面の枠は増えない想定</t>
-    <rPh sb="0" eb="4">
-      <t>キノウイチラン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>テイギショ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="31" eb="36">
-      <t>ガメンセンイズ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ワク</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル定義について
-会員テーブルには退会判定用のカラムが無いのですが、
-退会処理をする際は物理削除という認識で相違ないですか？</t>
-    <rPh sb="4" eb="6">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="19" eb="24">
-      <t>タイカイハンテイヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>タイカイショリ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="46" eb="50">
-      <t>ブツリサクジョ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>物理削除でよい</t>
-    <rPh sb="0" eb="4">
-      <t>ブツリサクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の購入確認画面について
-項番59：「清算方法が選択できること」とあるが、選択方法は
-プルダウンメニューを使用する認識で相違ないですか？</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="6" eb="12">
-      <t>コウニュウカクニンガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>セイサンホウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>センタクホウホウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義書の購入確認画面について
-項番61：「配送先が指定できること」とあるが、指定方法は
-プルダウンメニューを使用する認識で相違ないですか？</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="6" eb="12">
-      <t>コウニュウカクニンガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ハイソウサキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>シテイホウホウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ソウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1321,7 +1540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1334,6 +1553,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1595,7 +1822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,6 +1914,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1711,22 +1941,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>259080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3202726</xdr:colOff>
+      <xdr:colOff>3199919</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1798565</xdr:rowOff>
+      <xdr:rowOff>1569720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{715FC061-F4F4-4448-ADF5-60CD33381016}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598EE638-E04F-4EBD-9747-54D778E49C2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,8 +1972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="426720" y="510540"/>
-          <a:ext cx="3019846" cy="1752845"/>
+          <a:off x="480060" y="723900"/>
+          <a:ext cx="2963699" cy="1310640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,22 +1985,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>822959</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>624841</xdr:rowOff>
+      <xdr:rowOff>243840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3307080</xdr:colOff>
+      <xdr:colOff>2401618</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1237965</xdr:rowOff>
+      <xdr:rowOff>1478280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF48220-31D4-4F14-A30C-A664AA126540}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CB9EBC-62AC-4D94-A5DE-6909090BECC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,8 +2016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="297180" y="2941321"/>
-          <a:ext cx="3253740" cy="613124"/>
+          <a:off x="1066799" y="2560320"/>
+          <a:ext cx="1578659" cy="1234440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2135,7 +2365,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2152,7 +2382,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2169,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2186,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -2203,7 +2433,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -2220,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -2234,10 +2464,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -2251,10 +2481,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -2271,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -2285,10 +2515,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2305,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2319,10 +2549,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2339,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2356,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -2373,7 +2603,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2390,7 +2620,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2407,7 +2637,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2424,7 +2654,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2441,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2455,10 +2685,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2472,10 +2702,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2489,10 +2719,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2506,10 +2736,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2523,10 +2753,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2540,10 +2770,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2557,7 +2787,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="8"/>
@@ -2572,7 +2802,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -2582,11 +2812,13 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2595,11 +2827,13 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.45">
       <c r="A31" s="22">
         <v>29</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2608,11 +2842,13 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.45">
       <c r="A32" s="22">
         <v>30</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="C32" s="13"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2621,16 +2857,112 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="14"/>
+    <row r="33" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A33" s="22">
+        <v>31</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="13"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A34" s="22">
+        <v>32</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="22"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="22"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="22"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="22"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="22"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="22"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2643,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEB825E-949D-4120-9965-953421810D5C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2672,7 +3004,7 @@
       <c r="A4" s="29">
         <v>2</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="29"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDD3298-B7FC-4CA3-B137-176BDEDCEEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF489B36-731D-4BC9-8A2C-6572AD5C7AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -1122,39 +1122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要件定義書の購入確認画面について
-項番61：「配送先が指定できること」とあるが、指定方法は
-プルダウンメニューを使用する認識で相違ないですか？</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="6" eb="12">
-      <t>コウニュウカクニンガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウバン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ハイソウサキ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>シテイホウホウ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内部設計の成果物について
 クラス仕様書で明示的にコンストラクタを使用しない場合は
 コンストラクタの記入はしなくても問題ないですか？</t>
@@ -1532,6 +1499,350 @@
     </rPh>
     <rPh sb="66" eb="68">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現について
+メールアドレス、パスワード、住所の正規表現はどのような
+入力値のチェックを行いますか？
+例）
+メールアドレス：
+半角英数字大文字小文字を使用、「@」、「.」の使用を強制
+パスワード：
+半角英数字大文字小文字それぞれ１文字以上が必須
+８文字以上16文字以下
+住所：
+都道府県から始まる住所</t>
+    <rPh sb="0" eb="4">
+      <t>セイキヒョウゲン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>セイキヒョウゲン</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="70" eb="76">
+      <t>オオモジコモジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="103" eb="106">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="106" eb="112">
+      <t>オオモジコモジ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="141" eb="145">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部設計の成果物について
+Servletのクラス仕様書でdoGetもしくはdoPostを使用しない
+Servletの時はシートの削除などした方が良いのでしょうか？</t>
+    <rPh sb="0" eb="4">
+      <t>ナイブセッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の購入確認画面について
+項番61：「配送先が指定できること」とあるが、指定方法は
+ラジオボタンを使用する認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ハイソウサキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>シテイホウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの追加について
+既にカートにある商品を更に追加しようとしたときの処理は
+どのようなものを想定していますか？</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の購入確認画面について
+項番74：「会員ログインをしていない場合、ログイン画面に転送すること」とあるが、購入確認画面はカート一覧画面からの遷移になるため、会員ログインしていない場合はないという
+認識ですが、相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="57" eb="63">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の会員ログイン画面について
+項番98,99：「ただし、購入確認画面から遷移された場合」,
+「ログイン成功時は購入確認画面へ遷移すること」とあり、
+カート一覧画面から遷移された場合がないが、
+この記述はカート一覧画面のことという認識で相違ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="32" eb="38">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>セイコウジ</t>
+    </rPh>
+    <rPh sb="59" eb="65">
+      <t>コウニュウカクニンガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="81" eb="85">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義書の会員情報変更関係の画面について
+会員情報変更確認・完了画面には会員ログインしていない場合
+の記述が無いが、もし会員ログインしていない場合は
+不正アクセスエラーとすることで問題ないですか？</t>
+    <rPh sb="0" eb="5">
+      <t>ヨウケンテイギショ</t>
+    </rPh>
+    <rPh sb="6" eb="12">
+      <t>カイインジョウホウヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>カイインジョウホウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2326,10 +2637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2464,7 +2775,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>31</v>
@@ -2481,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>38</v>
@@ -2515,7 +2826,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>22</v>
@@ -2549,7 +2860,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>23</v>
@@ -2802,7 +3113,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="8"/>
@@ -2817,7 +3128,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="8"/>
@@ -2832,7 +3143,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="8"/>
@@ -2847,7 +3158,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="8"/>
@@ -2862,7 +3173,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="8"/>
@@ -2877,7 +3188,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="8"/>
@@ -2887,9 +3198,13 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="22"/>
-      <c r="B35" s="16"/>
+    <row r="35" spans="1:9" ht="198" x14ac:dyDescent="0.45">
+      <c r="A35" s="22">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2898,9 +3213,13 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="22"/>
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A36" s="22">
+        <v>34</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2909,9 +3228,13 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="22"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+      <c r="A37" s="22">
+        <v>35</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2920,9 +3243,13 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="22"/>
-      <c r="B38" s="16"/>
+    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+      <c r="A38" s="22">
+        <v>36</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2931,9 +3258,13 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="22"/>
-      <c r="B39" s="16"/>
+    <row r="39" spans="1:9" ht="108" x14ac:dyDescent="0.45">
+      <c r="A39" s="22">
+        <v>37</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2942,9 +3273,13 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="22"/>
-      <c r="B40" s="16"/>
+    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A40" s="22">
+        <v>38</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2953,16 +3288,181 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="14"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="22"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="22"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="22"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="22"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="22"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="22"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="22"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="22"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="22"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="22"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="22"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="22"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="22"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A54" s="22"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="22"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF489B36-731D-4BC9-8A2C-6572AD5C7AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B2472-19E7-43AE-8D7E-45C105027711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -1281,40 +1281,6 @@
     </rPh>
     <rPh sb="94" eb="96">
       <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データベースについて
-コネクションプールの使用は必要ですか？
-必要なら、最小接続数や最大接続数、接続の最長時間などは
-どのようにしますか？</t>
-    <rPh sb="21" eb="23">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>サイショウセツゾク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>セツゾクスウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="51" eb="55">
-      <t>サイチョウジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1843,6 +1809,147 @@
     </rPh>
     <rPh sb="91" eb="93">
       <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相違なし</t>
+    <rPh sb="0" eb="2">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND検索、両方一致したとき</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>リョウホウイッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題なし</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不正アクセスエラーとする</t>
+    <rPh sb="0" eb="2">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書かなくて良い</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残しといたほうが良い
+作らなかったのか、忘れているかの区別がつかない</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワス</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要
+各ページにログアウトのリンクを設置
+メイン画面に遷移し、即ログアウト処理</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例の物で問題なし</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量を追加
+追加後の数量が在庫数を超過した場合、
+ページを戻しメッセージ表示</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ツイカゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ザイコスウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1876,15 +1983,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -2127,13 +2240,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2229,6 +2375,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2639,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2775,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>31</v>
@@ -2792,7 +2962,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>38</v>
@@ -2826,7 +2996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>22</v>
@@ -2860,7 +3030,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>23</v>
@@ -3076,8 +3246,8 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A27" s="18">
+    <row r="27" spans="1:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="22">
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -3094,13 +3264,15 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A28" s="18">
+      <c r="A28" s="35">
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="4"/>
@@ -3109,13 +3281,15 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A29" s="18">
+      <c r="A29" s="33">
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="4"/>
@@ -3123,14 +3297,16 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="54" x14ac:dyDescent="0.45">
-      <c r="A30" s="18">
+    <row r="30" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+      <c r="A30" s="34">
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="4"/>
@@ -3143,9 +3319,11 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="4"/>
@@ -3153,14 +3331,16 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.45">
-      <c r="A32" s="22">
+    <row r="32" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+      <c r="A32" s="32">
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="4"/>
@@ -3168,14 +3348,16 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="198" x14ac:dyDescent="0.45">
       <c r="A33" s="22">
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="4"/>
@@ -3183,14 +3365,16 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="72" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A34" s="22">
         <v>32</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="4"/>
@@ -3198,14 +3382,16 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="198" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="90" x14ac:dyDescent="0.45">
       <c r="A35" s="22">
         <v>33</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="13"/>
+        <v>63</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="4"/>
@@ -3213,14 +3399,16 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="108" x14ac:dyDescent="0.45">
       <c r="A36" s="22">
         <v>34</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="13"/>
+        <v>64</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="4"/>
@@ -3228,14 +3416,16 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="54" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="22">
         <v>35</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="4"/>
@@ -3243,14 +3433,16 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A38" s="22">
         <v>36</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="4"/>
@@ -3258,14 +3450,16 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="108" x14ac:dyDescent="0.45">
-      <c r="A39" s="22">
+    <row r="39" spans="1:9" ht="54.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="19">
         <v>37</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="13"/>
+      <c r="B39" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="4"/>
@@ -3273,14 +3467,12 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="72" x14ac:dyDescent="0.45">
-      <c r="A40" s="22">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="37">
         <v>38</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="13"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
@@ -3289,7 +3481,9 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="22"/>
+      <c r="A41" s="22">
+        <v>39</v>
+      </c>
       <c r="B41" s="16"/>
       <c r="C41" s="13"/>
       <c r="D41" s="8"/>
@@ -3300,7 +3494,9 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="22"/>
+      <c r="A42" s="22">
+        <v>40</v>
+      </c>
       <c r="B42" s="16"/>
       <c r="C42" s="13"/>
       <c r="D42" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965B2472-19E7-43AE-8D7E-45C105027711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588AB75-D322-44F2-8C9B-F19364ADDCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -1950,6 +1950,99 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトの機能について、
+設置対象外の画面は、
+・会員ログイン画面
+・会員登録情報入力画面
+・会員登録情報確認画面
+・会員登録完了画面
+の認識ですが、相違ないでしょうか？</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="46">
+      <t>カイイントウロクジョウホウニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="48" eb="58">
+      <t>カイイントウロクジョウホウカクニンガメン</t>
+    </rPh>
+    <rPh sb="60" eb="68">
+      <t>カイイントウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトの機能について、
+・商品検索画面
+・商品検索結果画面
+・商品詳細表示画面
+の3画面はログインしていなくてもアクセス出来る画面なので、
+ログインしていないときは「ログアウト」リンクは非表示に
+します。
+問題は無いでしょうか？</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="23" eb="29">
+      <t>ショウヒンケンサクケッカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="39">
+      <t>ショウヒンショウサイヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="95" eb="98">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2809,8 +2902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3467,11 +3560,13 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="126" x14ac:dyDescent="0.45">
       <c r="A40" s="37">
         <v>38</v>
       </c>
-      <c r="B40" s="8"/>
+      <c r="B40" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="C40" s="38"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3480,11 +3575,13 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="144" x14ac:dyDescent="0.45">
       <c r="A41" s="22">
         <v>39</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>

--- a/質問事項まとめ.xlsx
+++ b/質問事項まとめ.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588AB75-D322-44F2-8C9B-F19364ADDCB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92EC2A8-431D-44CF-A1D5-BB424EF69633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55FB699B-A327-403E-AC62-BF929C454FB3}"/>
   </bookViews>
   <sheets>
     <sheet name="質問事項" sheetId="1" r:id="rId1"/>
     <sheet name="補足資料" sheetId="2" r:id="rId2"/>
+    <sheet name="ログアウトリンクの位置" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>質問事項</t>
     <rPh sb="0" eb="2">
@@ -1955,49 +1956,6 @@
   </si>
   <si>
     <t>ログアウトの機能について、
-設置対象外の画面は、
-・会員ログイン画面
-・会員登録情報入力画面
-・会員登録情報確認画面
-・会員登録完了画面
-の認識ですが、相違ないでしょうか？</t>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>タイショウガイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="46">
-      <t>カイイントウロクジョウホウニュウリョクガメン</t>
-    </rPh>
-    <rPh sb="48" eb="58">
-      <t>カイイントウロクジョウホウカクニンガメン</t>
-    </rPh>
-    <rPh sb="60" eb="68">
-      <t>カイイントウロクカンリョウガメン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ニンシキ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ソウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウトの機能について、
 ・商品検索画面
 ・商品検索結果画面
 ・商品詳細表示画面
@@ -2043,6 +2001,97 @@
     </rPh>
     <rPh sb="108" eb="109">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトの機能について
+「ログアウト」リンクは画面下部(リンクの中で一番下)
+に記載する認識ですが、相違ないでしょうか？</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カブ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>イチバンシタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相違なし</t>
+    <rPh sb="0" eb="2">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題なし</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトの機能について、
+設置対象外の画面は、
+・会員ログイン画面
+・会員登録情報入力画面
+・会員登録情報確認画面
+・会員登録完了画面
+・退会完了画面
+の認識ですが、相違ないでしょうか？</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タイショウガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="36" eb="46">
+      <t>カイイントウロクジョウホウニュウリョクガメン</t>
+    </rPh>
+    <rPh sb="48" eb="58">
+      <t>カイイントウロクジョウホウカクニンガメン</t>
+    </rPh>
+    <rPh sb="60" eb="68">
+      <t>カイイントウロクカンリョウガメン</t>
+    </rPh>
+    <rPh sb="70" eb="76">
+      <t>タイカイカンリョウガメン</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ソウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2598,6 +2647,239 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313568</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40816</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35103FAE-2471-4BA3-BBE9-F2B85C593248}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="8634" r="72896" b="34067"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313568" y="146868"/>
+          <a:ext cx="5801477" cy="6844146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446313</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>141515</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9337FD25-B1A9-4513-BE43-4C5EC7012AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="8255" r="64779" b="49994"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6520542" y="141515"/>
+          <a:ext cx="6444344" cy="4294414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511628</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7552FFB-EC3B-4237-AE26-05D1A79CE9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6585857" y="3374571"/>
+          <a:ext cx="1164772" cy="315686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>424543</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733278D8-5396-4E5A-9594-3B00421F877C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="424543" y="5236028"/>
+          <a:ext cx="1230086" cy="413657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2902,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10193D16-D5A0-4627-8EC7-8981FC3B0685}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -3560,14 +3842,16 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="126" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="144" x14ac:dyDescent="0.45">
       <c r="A40" s="37">
         <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="38"/>
+        <v>80</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>78</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="4"/>
@@ -3580,9 +3864,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="4"/>
@@ -3590,12 +3876,16 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" ht="54" x14ac:dyDescent="0.45">
       <c r="A42" s="22">
         <v>40</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="13"/>
+      <c r="B42" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="4"/>
@@ -3768,7 +4058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEB825E-949D-4120-9965-953421810D5C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3816,4 +4106,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F34511-29CF-4EE6-837D-2BF4F8752E58}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>